--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_12-00.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_12-00.xlsx
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>TERBIN 250MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
     <t>UNICTAM 1.5 GM I.M/I.V. VIAL</t>
@@ -1504,17 +1507,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1522,7 +1525,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1530,17 +1533,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1556,17 +1559,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>18</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1582,17 +1585,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1600,7 +1603,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1608,17 +1611,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>102.59999999999999</v>
+        <v>17</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1634,13 +1637,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>40</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1660,7 +1663,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -1670,7 +1673,7 @@
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1686,17 +1689,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1704,7 +1707,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1712,17 +1715,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1730,7 +1733,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1738,17 +1741,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1764,17 +1767,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1782,7 +1785,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1790,17 +1793,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1808,7 +1811,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1816,51 +1819,77 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="K44" s="11">
-        <v>2803.8699999999999</v>
-      </c>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="12">
+    <row r="44" ht="24.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c t="s" r="B44" s="7">
+        <v>65</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c t="s" r="H44" s="8">
         <v>66</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c t="s" r="F45" s="13">
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9">
+        <v>30</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="26.25" customHeight="1">
+      <c r="K45" s="11">
+        <v>2826.8699999999999</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="12">
         <v>67</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
-      <c t="s" r="I45" s="15">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c t="s" r="F46" s="13">
         <v>68</v>
       </c>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c t="s" r="I46" s="15">
+        <v>69</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="134">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1988,10 +2017,13 @@
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:N46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
